--- a/docs/LLM_service_pricing.xlsx
+++ b/docs/LLM_service_pricing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minh.trinh\Downloads\pricing and infrastructure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A889038-363F-4D5E-8A85-746F674F9434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D2DCE8-C94A-42C7-8FD8-1B60BE9247FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8098394B-B274-499C-9386-51BC5074E101}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="64">
   <si>
     <t>360 RPM (requests per minute)</t>
   </si>
@@ -207,13 +207,34 @@
   </si>
   <si>
     <t>LLM Leaderboard - Compare GPT-4o, Llama 3, Mistral, Gemini &amp; other models | Artificial Analysis</t>
+  </si>
+  <si>
+    <t>embedding model</t>
+  </si>
+  <si>
+    <t>$0.1</t>
+  </si>
+  <si>
+    <t>Per 1M tokens</t>
+  </si>
+  <si>
+    <t>Ada (text-embedding-ada-002)</t>
+  </si>
+  <si>
+    <t>MTEB Leaderboard - a Hugging Face Space by mteb</t>
+  </si>
+  <si>
+    <t>Large language models</t>
+  </si>
+  <si>
+    <t>Embedding model</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,6 +260,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -248,7 +285,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -350,12 +387,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -398,7 +448,19 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -734,10 +796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDCB8BFA-8674-442C-A333-014A7540C331}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,267 +813,320 @@
     <col min="7" max="7" width="13.140625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F2" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C3" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D3" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="E4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F5" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="10"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C6" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D6" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="8" t="s">
+      <c r="E6" s="15"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D7" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5" t="s">
+      <c r="E7" s="4"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D8" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="10"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="E8" s="5"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="8" t="s">
+      <c r="E9" s="4"/>
+      <c r="G9" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="10"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="E10" s="4"/>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C11" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D11" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E11" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="8" t="s">
+      <c r="F11" s="1"/>
+      <c r="G11" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="10"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="11" t="s">
-        <v>38</v>
-      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="10"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="16"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B14" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C14" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D14" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="12" t="s">
+      <c r="E14" s="16"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="6" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="6" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="6" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
         <v>54</v>
       </c>
     </row>
+    <row r="20" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="25"/>
+      <c r="C20" s="26"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A20:C20"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B18" r:id="rId1" display="https://help.openai.com/en/articles/4936856-what-are-tokens-and-how-to-count-them" xr:uid="{621AB9F1-4F18-402D-8CA5-90AD4F00FBBD}"/>
-    <hyperlink ref="B19" r:id="rId2" xr:uid="{1A5DAAB3-8F8F-4139-BF19-88BC47730A02}"/>
-    <hyperlink ref="G13" r:id="rId3" display="https://azure.microsoft.com/en-us/pricing/details/cognitive-services/openai-service/" xr:uid="{24041D3D-B074-4E2E-80E6-6BCBD6074FD6}"/>
-    <hyperlink ref="G12" r:id="rId4" display="https://fireworks.ai/pricing" xr:uid="{B4A40B56-2581-43BE-A9D3-D407DF8CA291}"/>
-    <hyperlink ref="G8" r:id="rId5" display="https://cohere.com/pricing" xr:uid="{37996C7C-6188-4997-817F-4DD781D694FC}"/>
-    <hyperlink ref="G10" r:id="rId6" display="https://console.groq.com/settings/billing" xr:uid="{351142C4-14D4-4288-9BE2-6C07E1B72EA8}"/>
-    <hyperlink ref="G2" r:id="rId7" display="https://ai.google.dev/pricing" xr:uid="{97813EC6-7B79-4F70-949E-20F825CB18BF}"/>
-    <hyperlink ref="G5" r:id="rId8" display="https://openai.com/api/pricing/" xr:uid="{0508A4DD-2C28-42EF-9223-AEC08A96F681}"/>
-    <hyperlink ref="B17" r:id="rId9" display="https://artificialanalysis.ai/leaderboards/models" xr:uid="{EECE913B-CA52-4641-8D53-BF175BB9365A}"/>
+    <hyperlink ref="A17" r:id="rId1" display="https://help.openai.com/en/articles/4936856-what-are-tokens-and-how-to-count-them" xr:uid="{621AB9F1-4F18-402D-8CA5-90AD4F00FBBD}"/>
+    <hyperlink ref="A18" r:id="rId2" xr:uid="{1A5DAAB3-8F8F-4139-BF19-88BC47730A02}"/>
+    <hyperlink ref="G14" r:id="rId3" display="https://azure.microsoft.com/en-us/pricing/details/cognitive-services/openai-service/" xr:uid="{24041D3D-B074-4E2E-80E6-6BCBD6074FD6}"/>
+    <hyperlink ref="G13" r:id="rId4" display="https://fireworks.ai/pricing" xr:uid="{B4A40B56-2581-43BE-A9D3-D407DF8CA291}"/>
+    <hyperlink ref="G9" r:id="rId5" display="https://cohere.com/pricing" xr:uid="{37996C7C-6188-4997-817F-4DD781D694FC}"/>
+    <hyperlink ref="G11" r:id="rId6" display="https://console.groq.com/settings/billing" xr:uid="{351142C4-14D4-4288-9BE2-6C07E1B72EA8}"/>
+    <hyperlink ref="G3" r:id="rId7" display="https://ai.google.dev/pricing" xr:uid="{97813EC6-7B79-4F70-949E-20F825CB18BF}"/>
+    <hyperlink ref="G6" r:id="rId8" display="https://openai.com/api/pricing/" xr:uid="{0508A4DD-2C28-42EF-9223-AEC08A96F681}"/>
+    <hyperlink ref="A16" r:id="rId9" display="https://artificialanalysis.ai/leaderboards/models" xr:uid="{EECE913B-CA52-4641-8D53-BF175BB9365A}"/>
+    <hyperlink ref="A24" r:id="rId10" display="https://azure.microsoft.com/en-us/pricing/details/cognitive-services/openai-service/" xr:uid="{8EB9646E-0C80-4402-BCD4-AC0A63DB6A94}"/>
+    <hyperlink ref="A25" r:id="rId11" display="https://huggingface.co/spaces/mteb/leaderboard" xr:uid="{59FD132B-0C16-4D7E-8589-1FF4E1C4F20A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
